--- a/biology/Zoologie/Amphisbaena_brasiliana/Amphisbaena_brasiliana.xlsx
+++ b/biology/Zoologie/Amphisbaena_brasiliana/Amphisbaena_brasiliana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amphisbaena brasiliana est une espèce d'amphisbènes de la famille des Amphisbaenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amphisbaena brasiliana est une espèce d'amphisbènes de la famille des Amphisbaenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Pará au Brésil[1].  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Pará au Brésil.  
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Gray, 1865 : A revision of the genera and species of amphisbaenians with the descriptions of some new species now in the collection of the British Museum. Proceedings of the Zoological Society of London, vol. 1865, p. 442-455 (texte intégral).</t>
         </is>
